--- a/001-data/鼠标指针矩阵.xlsx
+++ b/001-data/鼠标指针矩阵.xlsx
@@ -108,7 +108,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -126,7 +140,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -148,230 +162,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -675,7 +465,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P16"/>
+      <selection activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.375" defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1498,21 +1288,21 @@
     <cfRule type="expression" priority="6">
       <formula>"FIND(""."","".$A$1:$P$16"")&gt;0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"*"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"."</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"O"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA5">
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"O"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"."</formula>
     </cfRule>
   </conditionalFormatting>
